--- a/data/trans_dic/DC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01460949347411223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08174173429919501</v>
+        <v>0.08174173429919503</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2116352999107046</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02752587269829776</v>
+        <v>0.02566189898008151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02176644928030124</v>
+        <v>0.02343731204589544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005239363739949204</v>
+        <v>0.005163875866681362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04164064940654064</v>
+        <v>0.04483112911131621</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1790215685588079</v>
+        <v>0.1738985028384402</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.127342779231079</v>
+        <v>0.1238717658292665</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07254530560838705</v>
+        <v>0.07141915680973585</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1885744995808398</v>
+        <v>0.1866101745459474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1047561184204763</v>
+        <v>0.1055467942119184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07659327336734081</v>
+        <v>0.0768820364123443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03987659007836139</v>
+        <v>0.04112473727753965</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1258177988600025</v>
+        <v>0.1228472316755476</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06703681252654813</v>
+        <v>0.06441738086207768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06030179385448208</v>
+        <v>0.05969709146922105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03048817053500561</v>
+        <v>0.03179106688267953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.141339222261059</v>
+        <v>0.1406692098856527</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2524633491833499</v>
+        <v>0.2461343422434765</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1955462289496492</v>
+        <v>0.1945301041291606</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1306948843754508</v>
+        <v>0.1282837153180832</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3124789376392606</v>
+        <v>0.3157187244782069</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.145225373994856</v>
+        <v>0.1455425367293398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1161028506291481</v>
+        <v>0.1164531253084108</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07215369691826345</v>
+        <v>0.07241651129211214</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2059187205912037</v>
+        <v>0.1997790988280443</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.08520201367040803</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1803955495230893</v>
+        <v>0.1803955495230894</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06805348736196148</v>
+        <v>0.06781397045480721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04171579721424784</v>
+        <v>0.03939839375125688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02212425229445589</v>
+        <v>0.02373979827930901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06884000654427387</v>
+        <v>0.06921840953966915</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2116841337734893</v>
+        <v>0.2165680720308297</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1183499282957599</v>
+        <v>0.1156614029252518</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.110556219459722</v>
+        <v>0.1065217276741332</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2167948467507563</v>
+        <v>0.215463683926275</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1413531051208148</v>
+        <v>0.1431362151852384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08289267826228264</v>
+        <v>0.08416705145790726</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07090362018011712</v>
+        <v>0.07032650762012271</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1528852671218451</v>
+        <v>0.1526990122487536</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1098907337499362</v>
+        <v>0.1097132509555311</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07789346624794692</v>
+        <v>0.07969858837754722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05709984189349488</v>
+        <v>0.05581530990305746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1382908872467825</v>
+        <v>0.140807275674844</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2845922068375849</v>
+        <v>0.2827387544077491</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1744083272123916</v>
+        <v>0.1778046771201443</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1649698468528075</v>
+        <v>0.1633611570962179</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2978433027991188</v>
+        <v>0.2961033909042796</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1805887067500071</v>
+        <v>0.1846494922362273</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1175775650645469</v>
+        <v>0.1185574695245722</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1033330084061948</v>
+        <v>0.10259235042225</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2100080745699037</v>
+        <v>0.2080715405534397</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.09653593485265163</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2233399003932985</v>
+        <v>0.2233399003932984</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1280795641388151</v>
+        <v>0.128045643937291</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05738577475226029</v>
+        <v>0.05462347084831955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05229707524184642</v>
+        <v>0.05162446023275981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1099026584335308</v>
+        <v>0.109603432907455</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1951306056565283</v>
+        <v>0.1934548528142283</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1706439805417346</v>
+        <v>0.1737212809160867</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09992132984675256</v>
+        <v>0.09870972521114427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2788725536610973</v>
+        <v>0.2769077255901984</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1697156306769281</v>
+        <v>0.1705578091017985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1208081891906576</v>
+        <v>0.122282132368114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08128740355994613</v>
+        <v>0.08177132912266213</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2007079543921641</v>
+        <v>0.2027483823860462</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1819390268316787</v>
+        <v>0.1875721431718823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09700019667754115</v>
+        <v>0.09741061134895759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09328715888084547</v>
+        <v>0.093896056229203</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1711938447133462</v>
+        <v>0.1704047380910308</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2603824067532932</v>
+        <v>0.2586701656065777</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2346352673832677</v>
+        <v>0.23473065341123</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1489654946760491</v>
+        <v>0.1487293234581735</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3411351557295717</v>
+        <v>0.3399207348128551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2146053106751208</v>
+        <v>0.2126870011501678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1593375851264208</v>
+        <v>0.1607110169234761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1148615388658828</v>
+        <v>0.1150963985470688</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2435296050602934</v>
+        <v>0.2459860658967085</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1693015232886134</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3754451610421302</v>
+        <v>0.3754451610421301</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2432212863012894</v>
@@ -1105,7 +1105,7 @@
         <v>0.1336469136399567</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3062470240503092</v>
+        <v>0.3062470240503093</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1770156188289224</v>
+        <v>0.1719821567762445</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07613545814717779</v>
+        <v>0.07469307142242013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07534674894639307</v>
+        <v>0.07535540819648757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.201964614736947</v>
+        <v>0.1996096091550773</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2386937074369682</v>
+        <v>0.2368143536421292</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1777855357250743</v>
+        <v>0.1752307196886053</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1403042995839183</v>
+        <v>0.1386296066958871</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3487012395902921</v>
+        <v>0.3486029633391242</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2173584772266387</v>
+        <v>0.2166613286599456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1295144585132874</v>
+        <v>0.1319695788746932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1154581271578718</v>
+        <v>0.1139370935299966</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2848325459495474</v>
+        <v>0.2855056500599906</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2553958069137694</v>
+        <v>0.2439548772860191</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1264253130061995</v>
+        <v>0.126913389484606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1247303888974423</v>
+        <v>0.1245392699673749</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2643374876468098</v>
+        <v>0.2671097823558671</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3168360262426901</v>
+        <v>0.3159604315754729</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2472543269813989</v>
+        <v>0.2441478094458416</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.200567822792275</v>
+        <v>0.2004666022837265</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4028871320726478</v>
+        <v>0.4035335235098216</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2684978510873458</v>
+        <v>0.2696798399208629</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1730041573980077</v>
+        <v>0.1762698574322553</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1543979132764463</v>
+        <v>0.1545958145478143</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.32940021699177</v>
+        <v>0.3287989404710178</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1513316588005698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2893671237427912</v>
+        <v>0.2893671237427911</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3071511769678447</v>
@@ -1229,7 +1229,7 @@
         <v>0.247819733202444</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4418924715525773</v>
+        <v>0.4418924715525774</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.312983426638536</v>
@@ -1241,7 +1241,7 @@
         <v>0.2005126460716458</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3655990570208165</v>
+        <v>0.3655990570208164</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2691982664962949</v>
+        <v>0.2722855925176275</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1034118998621812</v>
+        <v>0.1018588502026176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1184084141113894</v>
+        <v>0.1148591797732865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2569348098836489</v>
+        <v>0.2569744731274871</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2652240505268927</v>
+        <v>0.26419595275243</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2494982847286739</v>
+        <v>0.2452452310391992</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2084131025762515</v>
+        <v>0.2096464059439094</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4109573696532934</v>
+        <v>0.4103759273132076</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2798162464464277</v>
+        <v>0.2809401388312192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1843971833454864</v>
+        <v>0.1847301602572556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1766050642482329</v>
+        <v>0.1741590083068545</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3424799556885608</v>
+        <v>0.3408538866720711</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3656956773731128</v>
+        <v>0.3657893830281295</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1656810618250802</v>
+        <v>0.1673968851730421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1883250729723441</v>
+        <v>0.1866028638987128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3267838333074366</v>
+        <v>0.3234457815991601</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3530527710061703</v>
+        <v>0.3507458425155703</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.332535149754729</v>
+        <v>0.3350858831521225</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2929578452140321</v>
+        <v>0.2944110966633924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4734004490091743</v>
+        <v>0.4709176418528332</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.345180913900795</v>
+        <v>0.3492526783246319</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2415552955660646</v>
+        <v>0.2433466546860714</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2299490847244271</v>
+        <v>0.226632879389737</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3895757987219456</v>
+        <v>0.3900555390552566</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2243250906735368</v>
+        <v>0.2251840140292986</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1633929317463445</v>
+        <v>0.1663964188780046</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1186651551021556</v>
+        <v>0.1171377717604376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2601885644431171</v>
+        <v>0.2577022498537449</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3651627730764345</v>
+        <v>0.3647213372438964</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2968558202071322</v>
+        <v>0.2974063112427503</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2002466120245651</v>
+        <v>0.1998399082200343</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4538958247839639</v>
+        <v>0.4515123363405617</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3143939592311081</v>
+        <v>0.3162245260208555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2435871280666072</v>
+        <v>0.2475909846445697</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1738325107081548</v>
+        <v>0.1754116044635424</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3714340131700958</v>
+        <v>0.3702050051350071</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3229631446545084</v>
+        <v>0.325172111466341</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2610601436535558</v>
+        <v>0.2567084404205632</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.199387515034825</v>
+        <v>0.1979509245291882</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3340585432824811</v>
+        <v>0.3338410252205773</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4617940776683814</v>
+        <v>0.4582140814447594</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3936679834459382</v>
+        <v>0.3945522103288854</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2894266906242935</v>
+        <v>0.2896875812991007</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5250393295493674</v>
+        <v>0.5223071760658167</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3799277362963848</v>
+        <v>0.3860465581064131</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3163499223728191</v>
+        <v>0.3175756524158035</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.233878939218265</v>
+        <v>0.2322419907524382</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4238502771673167</v>
+        <v>0.4241893684237357</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3250879649936672</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5973940947888878</v>
+        <v>0.5973940947888877</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3704803092206319</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3054444709275483</v>
+        <v>0.3122779371742844</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1993899513163752</v>
+        <v>0.2000124789263761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1848403100972981</v>
+        <v>0.1777463095143021</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3735396028561044</v>
+        <v>0.3741584353090545</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3164312374714804</v>
+        <v>0.3222991099385136</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.379060014760304</v>
+        <v>0.3766942299459282</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2737580000396989</v>
+        <v>0.2703979650935142</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5660518971018342</v>
+        <v>0.5640231821615352</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3288661316786783</v>
+        <v>0.3296461435437253</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.325482600849231</v>
+        <v>0.3232035367838667</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2515186125136357</v>
+        <v>0.2531709464529839</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4944102028058969</v>
+        <v>0.4990965634012499</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4320076772938163</v>
+        <v>0.4337889398793732</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3206793335600283</v>
+        <v>0.3146969268921866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2833941294933123</v>
+        <v>0.2773436610075959</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4640914254140751</v>
+        <v>0.468142015112485</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4306693979059836</v>
+        <v>0.429483570473315</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4818812431973685</v>
+        <v>0.4830786745207887</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3783091675910692</v>
+        <v>0.3733216096525183</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6307534798861202</v>
+        <v>0.629434084039254</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4108355057581002</v>
+        <v>0.4153118125995039</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4007409270372048</v>
+        <v>0.4005675316439718</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3270331304779409</v>
+        <v>0.3283269780348458</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5505805757913855</v>
+        <v>0.5551359211989352</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1837136657317105</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2276724961502341</v>
@@ -1649,7 +1649,7 @@
         <v>0.1402056702677319</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13600</v>
+        <v>12679</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9885</v>
+        <v>10644</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2198</v>
+        <v>2166</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16981</v>
+        <v>18282</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>83691</v>
+        <v>81296</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>54787</v>
+        <v>53293</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28710</v>
+        <v>28264</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>68361</v>
+        <v>67648</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100729</v>
+        <v>101489</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>67737</v>
+        <v>67993</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32508</v>
+        <v>33526</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>96918</v>
+        <v>94630</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33120</v>
+        <v>31826</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27386</v>
+        <v>27111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12789</v>
+        <v>13335</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57637</v>
+        <v>57364</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>118024</v>
+        <v>115065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84130</v>
+        <v>83693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51723</v>
+        <v>50769</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>113277</v>
+        <v>114452</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>139642</v>
+        <v>139947</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>102679</v>
+        <v>102988</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>58821</v>
+        <v>59035</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>158620</v>
+        <v>153891</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>50053</v>
+        <v>49876</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28662</v>
+        <v>27070</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13064</v>
+        <v>14018</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32829</v>
+        <v>33010</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>132407</v>
+        <v>135462</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72224</v>
+        <v>70583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62303</v>
+        <v>60030</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>108773</v>
+        <v>108105</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>192379</v>
+        <v>194806</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>107540</v>
+        <v>109193</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>81826</v>
+        <v>81160</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149617</v>
+        <v>149435</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>80823</v>
+        <v>80693</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53520</v>
+        <v>54760</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33717</v>
+        <v>32959</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65950</v>
+        <v>67150</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>178011</v>
+        <v>176851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>106434</v>
+        <v>108506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92968</v>
+        <v>92061</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>149438</v>
+        <v>148565</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>245778</v>
+        <v>251305</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>152538</v>
+        <v>153810</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>119250</v>
+        <v>118396</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>205519</v>
+        <v>203624</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81800</v>
+        <v>81779</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39129</v>
+        <v>37246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34992</v>
+        <v>34542</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68232</v>
+        <v>68046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>134590</v>
+        <v>133434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>121302</v>
+        <v>123490</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66087</v>
+        <v>65285</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>173791</v>
+        <v>172567</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>225452</v>
+        <v>226571</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>168251</v>
+        <v>170304</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>108152</v>
+        <v>108795</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>249687</v>
+        <v>252225</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116199</v>
+        <v>119796</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66141</v>
+        <v>66421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62418</v>
+        <v>62826</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106283</v>
+        <v>105794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>179597</v>
+        <v>178416</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>166790</v>
+        <v>166858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>98524</v>
+        <v>98367</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>212593</v>
+        <v>211836</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>285084</v>
+        <v>282536</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>221911</v>
+        <v>223824</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>152821</v>
+        <v>153134</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>302958</v>
+        <v>306014</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91897</v>
+        <v>89284</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46794</v>
+        <v>45908</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48678</v>
+        <v>48683</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>141500</v>
+        <v>139850</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>123081</v>
+        <v>122111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109551</v>
+        <v>107977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>91068</v>
+        <v>89981</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>256953</v>
+        <v>256881</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>224920</v>
+        <v>224199</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>159408</v>
+        <v>162430</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>149533</v>
+        <v>147563</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>409448</v>
+        <v>410416</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>132588</v>
+        <v>126648</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77703</v>
+        <v>78003</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>80582</v>
+        <v>80458</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>185199</v>
+        <v>187142</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>163374</v>
+        <v>162922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>152358</v>
+        <v>150444</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>130184</v>
+        <v>130118</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>296882</v>
+        <v>297358</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>277839</v>
+        <v>279062</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>212936</v>
+        <v>216956</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>199965</v>
+        <v>200221</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>473514</v>
+        <v>472650</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>104102</v>
+        <v>105296</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>44408</v>
+        <v>43741</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>56590</v>
+        <v>54893</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156562</v>
+        <v>156586</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>107147</v>
+        <v>106731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>111725</v>
+        <v>109821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>103550</v>
+        <v>104163</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>250213</v>
+        <v>249859</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>221250</v>
+        <v>222138</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>161759</v>
+        <v>162051</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>172149</v>
+        <v>169764</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>417210</v>
+        <v>415229</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>141418</v>
+        <v>141454</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>71148</v>
+        <v>71885</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90004</v>
+        <v>89181</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>199124</v>
+        <v>197090</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>142628</v>
+        <v>141696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>148909</v>
+        <v>150051</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145556</v>
+        <v>146278</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>288232</v>
+        <v>286721</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>272933</v>
+        <v>276153</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>211899</v>
+        <v>213471</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>224147</v>
+        <v>220914</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>474582</v>
+        <v>475166</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>65634</v>
+        <v>65885</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>50617</v>
+        <v>51547</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>39673</v>
+        <v>39163</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>105918</v>
+        <v>104905</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>125227</v>
+        <v>125075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>105086</v>
+        <v>105281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75646</v>
+        <v>75492</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>199336</v>
+        <v>198289</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>199803</v>
+        <v>200966</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>161689</v>
+        <v>164346</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>123785</v>
+        <v>124909</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>314325</v>
+        <v>313285</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>94494</v>
+        <v>95140</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>80873</v>
+        <v>79525</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>66661</v>
+        <v>66181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>135989</v>
+        <v>135900</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>158365</v>
+        <v>157137</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>139357</v>
+        <v>139670</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>109334</v>
+        <v>109433</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>230579</v>
+        <v>229380</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>241451</v>
+        <v>245339</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>209987</v>
+        <v>210801</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>166543</v>
+        <v>165378</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>358682</v>
+        <v>358969</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>64108</v>
+        <v>65542</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>49818</v>
+        <v>49973</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>47504</v>
+        <v>45680</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>115871</v>
+        <v>116063</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>105659</v>
+        <v>107618</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>147446</v>
+        <v>146526</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>109549</v>
+        <v>108205</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>262993</v>
+        <v>262050</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>178834</v>
+        <v>179259</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>207928</v>
+        <v>206472</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>165290</v>
+        <v>166376</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>383072</v>
+        <v>386704</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>90671</v>
+        <v>91045</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>80122</v>
+        <v>78627</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>72832</v>
+        <v>71277</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>143960</v>
+        <v>145217</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>143804</v>
+        <v>143408</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>187442</v>
+        <v>187907</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>151388</v>
+        <v>149392</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>293054</v>
+        <v>292441</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>223409</v>
+        <v>225843</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>256005</v>
+        <v>255895</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>214915</v>
+        <v>215766</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>426594</v>
+        <v>430123</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
     </row>
     <row r="36">
